--- a/biology/Médecine/The_Flying_Doctor/The_Flying_Doctor.xlsx
+++ b/biology/Médecine/The_Flying_Doctor/The_Flying_Doctor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-The Flying Doctor est un film australo-britannique réalisé par Miles Mander et sorti en 1936[1].
-Considéré comme le premier film sonore australien, c'est également le premier film consacré à l'aviation dans ce pays[2].
+The Flying Doctor est un film australo-britannique réalisé par Miles Mander et sorti en 1936.
+Considéré comme le premier film sonore australien, c'est également le premier film consacré à l'aviation dans ce pays.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sandy, un aventurier australien, voyage dans différents lieux en vivant de petits boulots. Dans une ferme il rencontre Mary dont il tombe amoureux. Par la suite il rencontre un médecin, John Vaughan, qui travaille en tant que « flying doctor » pour le Royal Flying Doctor Service.
 </t>
@@ -544,15 +558,17 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Miles Mander
-Scénario : J. O. C. Orton, Miles Mander d'après un roman de Robert Waldron[3]
+Scénario : J. O. C. Orton, Miles Mander d'après un roman de Robert Waldron
 Production : National Productions, Gaumont-British Pictures
 Photographie : Derick Williams
 Musique : Willy Redsone, Alf. J. Lawrence
 Montage : J.O.C. Orton, R. Maslyn Williams, Edna Turner
-Durée : 92 minutes (Australie)[4], 67 minutes (Royaume-Uni)
+Durée : 92 minutes (Australie), 67 minutes (Royaume-Uni)
 Dates de sortie :
 23 septembre 1936 :  Australie
 septembre 1937 :  Royaume-Uni</t>
@@ -583,7 +599,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Charles Farrell : Sandy Nelson
 Mary Maguire : Jenny Rutherford
@@ -627,9 +645,11 @@
           <t>Redécouverte du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Considéré comme disparu, il a été redécouvert par hasard par un employé de bureau australien qui a retrouvé 8 bobines sur 9. La version courte britannique a été retrouvée deux ans plus tard[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Considéré comme disparu, il a été redécouvert par hasard par un employé de bureau australien qui a retrouvé 8 bobines sur 9. La version courte britannique a été retrouvée deux ans plus tard.
 </t>
         </is>
       </c>
